--- a/plate reader output template.xlsx
+++ b/plate reader output template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="14">
   <si>
     <t xml:space="preserve">1.Vertical</t>
   </si>
@@ -28,10 +28,10 @@
     <t xml:space="preserve">A</t>
   </si>
   <si>
-    <t xml:space="preserve">diff</t>
+    <t xml:space="preserve">B</t>
   </si>
   <si>
-    <t xml:space="preserve">B</t>
+    <t xml:space="preserve">diff</t>
   </si>
   <si>
     <t xml:space="preserve">C</t>
@@ -295,8 +295,8 @@
   </sheetPr>
   <dimension ref="A1:AA50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -384,7 +384,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -421,12 +421,8 @@
       <c r="L2" s="3" t="n">
         <v>0.318</v>
       </c>
-      <c r="M2" s="3" t="n">
-        <v>0.268</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
       <c r="O2" s="2" t="s">
         <v>1</v>
       </c>
@@ -469,7 +465,7 @@
     </row>
     <row r="3" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>0.005</v>
@@ -508,10 +504,10 @@
         <v>0.205</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P3" s="3" t="n">
         <v>1</v>
@@ -591,7 +587,7 @@
         <v>0.137</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>4</v>
@@ -674,7 +670,7 @@
         <v>0.074</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>5</v>
@@ -757,7 +753,7 @@
         <v>0.045</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>6</v>
@@ -840,7 +836,7 @@
         <v>0.025</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>7</v>
@@ -923,7 +919,7 @@
         <v>0.016</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>8</v>
@@ -1006,7 +1002,7 @@
         <v>0.004</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>9</v>
@@ -1170,7 +1166,7 @@
         <v>0.268</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>1</v>
@@ -1214,7 +1210,7 @@
     </row>
     <row r="13" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" s="3" t="n">
         <v>0.281</v>
@@ -1253,10 +1249,10 @@
         <v>0.232</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P13" s="3" t="n">
         <v>1</v>
@@ -1336,7 +1332,7 @@
         <v>0.12</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>4</v>
@@ -1419,7 +1415,7 @@
         <v>0.08</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>5</v>
@@ -1502,7 +1498,7 @@
         <v>0.044</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>6</v>
@@ -1585,7 +1581,7 @@
         <v>0.024</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>7</v>
@@ -1668,7 +1664,7 @@
         <v>0.017</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>8</v>
@@ -1751,7 +1747,7 @@
         <v>0.005</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>9</v>
@@ -1915,7 +1911,7 @@
         <v>0.006</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>1</v>
@@ -1959,7 +1955,7 @@
     </row>
     <row r="23" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" s="3" t="n">
         <v>0.005</v>
@@ -1998,10 +1994,10 @@
         <v>0.006</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P23" s="3" t="n">
         <v>1</v>
@@ -2081,7 +2077,7 @@
         <v>0.012</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>4</v>
@@ -2164,7 +2160,7 @@
         <v>0.004</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>5</v>
@@ -2247,7 +2243,7 @@
         <v>0.005</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>6</v>
@@ -2330,7 +2326,7 @@
         <v>0.005</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O27" s="2" t="s">
         <v>7</v>
@@ -2413,7 +2409,7 @@
         <v>0.007</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>8</v>
@@ -2496,7 +2492,7 @@
         <v>0.007</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>9</v>
@@ -2660,7 +2656,7 @@
         <v>0.007</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O32" s="2" t="s">
         <v>1</v>
@@ -2704,7 +2700,7 @@
     </row>
     <row r="33" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B33" s="3" t="n">
         <v>0.281</v>
@@ -2743,10 +2739,10 @@
         <v>0.007</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P33" s="3" t="n">
         <v>1</v>
@@ -2826,7 +2822,7 @@
         <v>0.005</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O34" s="2" t="s">
         <v>4</v>
@@ -2909,7 +2905,7 @@
         <v>0.006</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O35" s="2" t="s">
         <v>5</v>
@@ -2992,7 +2988,7 @@
         <v>0.225</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O36" s="2" t="s">
         <v>6</v>
@@ -3075,7 +3071,7 @@
         <v>0.249</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O37" s="2" t="s">
         <v>7</v>
@@ -3158,7 +3154,7 @@
         <v>0.007</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>8</v>
@@ -3241,7 +3237,7 @@
         <v>0.006</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O39" s="2" t="s">
         <v>9</v>
@@ -3405,7 +3401,7 @@
         <v>0.006</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O42" s="2" t="s">
         <v>1</v>
@@ -3449,7 +3445,7 @@
     </row>
     <row r="43" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B43" s="11" t="n">
         <v>0.211</v>
@@ -3488,10 +3484,10 @@
         <v>0.006</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P43" s="11" t="n">
         <v>1</v>
@@ -3571,7 +3567,7 @@
         <v>0.012</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O44" s="2" t="s">
         <v>4</v>
@@ -3654,7 +3650,7 @@
         <v>0.004</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O45" s="2" t="s">
         <v>5</v>
@@ -3737,7 +3733,7 @@
         <v>0.005</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O46" s="2" t="s">
         <v>6</v>
@@ -3820,7 +3816,7 @@
         <v>0.005</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O47" s="2" t="s">
         <v>7</v>
@@ -3903,7 +3899,7 @@
         <v>0.007</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O48" s="2" t="s">
         <v>8</v>
@@ -3986,7 +3982,7 @@
         <v>0.007</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O49" s="2" t="s">
         <v>9</v>
